--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="H2">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="I2">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="J2">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="N2">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="O2">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="P2">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="Q2">
-        <v>19.104181113889</v>
+        <v>1.765778538276</v>
       </c>
       <c r="R2">
-        <v>171.937630025001</v>
+        <v>15.892006844484</v>
       </c>
       <c r="S2">
-        <v>0.009930633326383954</v>
+        <v>0.001053726875912805</v>
       </c>
       <c r="T2">
-        <v>0.009930633326383952</v>
+        <v>0.001053726875912805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="H3">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="I3">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="J3">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>112.67503</v>
       </c>
       <c r="O3">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="P3">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="Q3">
-        <v>164.1612464666633</v>
+        <v>49.90850313826</v>
       </c>
       <c r="R3">
-        <v>1477.45121819997</v>
+        <v>449.17652824434</v>
       </c>
       <c r="S3">
-        <v>0.08533342179620465</v>
+        <v>0.02978285778957808</v>
       </c>
       <c r="T3">
-        <v>0.08533342179620464</v>
+        <v>0.02978285778957808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="H4">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="I4">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="J4">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="N4">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="O4">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="P4">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="Q4">
-        <v>8.442447514486</v>
+        <v>2.72237468504</v>
       </c>
       <c r="R4">
-        <v>75.98202763037401</v>
+        <v>24.50137216536</v>
       </c>
       <c r="S4">
-        <v>0.004388507947228896</v>
+        <v>0.001624574831865424</v>
       </c>
       <c r="T4">
-        <v>0.004388507947228894</v>
+        <v>0.001624574831865424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>112.67503</v>
       </c>
       <c r="I5">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="J5">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="N5">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="O5">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="P5">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="Q5">
-        <v>164.1612464666633</v>
+        <v>49.90850313826</v>
       </c>
       <c r="R5">
-        <v>1477.45121819997</v>
+        <v>449.17652824434</v>
       </c>
       <c r="S5">
-        <v>0.08533342179620465</v>
+        <v>0.02978285778957808</v>
       </c>
       <c r="T5">
-        <v>0.08533342179620464</v>
+        <v>0.02978285778957808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>112.67503</v>
       </c>
       <c r="I6">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="J6">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>112.67503</v>
       </c>
       <c r="O6">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="P6">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="Q6">
         <v>1410.629153944544</v>
@@ -815,10 +815,10 @@
         <v>12695.6623855009</v>
       </c>
       <c r="S6">
-        <v>0.73326570784791</v>
+        <v>0.8417917758298036</v>
       </c>
       <c r="T6">
-        <v>0.7332657078479099</v>
+        <v>0.8417917758298036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>112.67503</v>
       </c>
       <c r="I7">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="J7">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="N7">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="O7">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="P7">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="Q7">
-        <v>72.54551759875334</v>
+        <v>76.94602837595555</v>
       </c>
       <c r="R7">
-        <v>652.9096583887799</v>
+        <v>692.5142553835999</v>
       </c>
       <c r="S7">
-        <v>0.03771022324648064</v>
+        <v>0.04591747851554219</v>
       </c>
       <c r="T7">
-        <v>0.03771022324648064</v>
+        <v>0.04591747851554219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="H8">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="I8">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="J8">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="N8">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="O8">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="P8">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="Q8">
-        <v>8.442447514486</v>
+        <v>2.72237468504</v>
       </c>
       <c r="R8">
-        <v>75.98202763037401</v>
+        <v>24.50137216536</v>
       </c>
       <c r="S8">
-        <v>0.004388507947228896</v>
+        <v>0.001624574831865424</v>
       </c>
       <c r="T8">
-        <v>0.004388507947228894</v>
+        <v>0.001624574831865424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="H9">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="I9">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="J9">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>112.67503</v>
       </c>
       <c r="O9">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="P9">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="Q9">
-        <v>72.54551759875334</v>
+        <v>76.94602837595555</v>
       </c>
       <c r="R9">
-        <v>652.9096583887799</v>
+        <v>692.5142553835999</v>
       </c>
       <c r="S9">
-        <v>0.03771022324648064</v>
+        <v>0.04591747851554219</v>
       </c>
       <c r="T9">
-        <v>0.03771022324648064</v>
+        <v>0.04591747851554219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="H10">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="I10">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="J10">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="N10">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="O10">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="P10">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="Q10">
-        <v>3.730854497764001</v>
+        <v>4.197199006044444</v>
       </c>
       <c r="R10">
-        <v>33.577690479876</v>
+        <v>37.7747910544</v>
       </c>
       <c r="S10">
-        <v>0.001939352845877753</v>
+        <v>0.002504675020312346</v>
       </c>
       <c r="T10">
-        <v>0.001939352845877752</v>
+        <v>0.002504675020312346</v>
       </c>
     </row>
   </sheetData>
